--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3805530.223136087</v>
+        <v>3819393.253844646</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7615254.451587625</v>
+        <v>7615254.451587623</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>102.2133755837553</v>
       </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>140.1741819907024</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>114.1355779554332</v>
       </c>
       <c r="V3" t="n">
-        <v>67.92180653108632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7.884372849250095</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>13.46550985000071</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>372.0396308464217</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0396308464223</v>
+        <v>352.7996991464896</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280909</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>286.3399746357583</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281881</v>
+        <v>4.972039538684917</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129677</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>150.6226432678733</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>64.00137801481753</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>282.5860313669115</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>107.7478168706086</v>
+        <v>129.8110638510811</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>124.2826752554037</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>162.3364906735229</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>33.35146980185877</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701348</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>56.12160049224522</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701348</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.16481274941263</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.0785952498009</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>60.51808258596473</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>180.2629634526189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,13 +2372,13 @@
         <v>208.4827883385018</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>79.14943066638139</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>88.30692799139884</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>136.0231507098477</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>27.61671453261811</v>
       </c>
     </row>
     <row r="29">
@@ -2843,16 +2843,16 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.27069149869236</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385021</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498012</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>129.3514056639561</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>143.3158222056492</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113179</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498012</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="36">
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T37" t="n">
-        <v>175.9070269162017</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151895</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113179</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385021</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>47.62361933169218</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>139.1537278750014</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U41" t="n">
         <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>91.79970579514256</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>160.8722505808159</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113158</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051991</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385021</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498012</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>113.6916812542479</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151891</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890374</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251.4724366382861</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="C2" t="n">
-        <v>251.4724366382861</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="D2" t="n">
-        <v>251.4724366382861</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="E2" t="n">
-        <v>251.4724366382861</v>
+        <v>404.2843284558963</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5269358890827</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4352,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>963.0359719905306</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>755.1452239840681</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T2" t="n">
-        <v>530.4184100750089</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="U2" t="n">
-        <v>530.4184100750089</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="V2" t="n">
-        <v>530.4184100750089</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="W2" t="n">
-        <v>530.4184100750089</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="X2" t="n">
-        <v>530.4184100750089</v>
+        <v>683.2303018926191</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.4724366382861</v>
+        <v>683.2303018926191</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.09252109618844</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="C3" t="n">
-        <v>22.09252109618844</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="D3" t="n">
-        <v>22.09252109618844</v>
+        <v>466.5192698462128</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09252109618844</v>
+        <v>307.2818148407573</v>
       </c>
       <c r="F3" t="n">
-        <v>22.09252109618844</v>
+        <v>160.7472568676423</v>
       </c>
       <c r="G3" t="n">
         <v>22.09252109618844</v>
@@ -4407,22 +4407,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>45.18387750277333</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>291.3393440954743</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>564.7342926608062</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N3" t="n">
-        <v>838.1292412261381</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O3" t="n">
-        <v>1104.626054809422</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4434,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>902.7461548375312</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U3" t="n">
-        <v>674.5275424716789</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="V3" t="n">
-        <v>605.9196570867432</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="W3" t="n">
-        <v>605.9196570867432</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="X3" t="n">
-        <v>398.0681568812104</v>
+        <v>615.4536795074641</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.3078581162565</v>
+        <v>615.4536795074641</v>
       </c>
     </row>
     <row r="4">
@@ -4465,19 +4465,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="C4" t="n">
-        <v>30.05653407522894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="D4" t="n">
-        <v>30.05653407522894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="E4" t="n">
-        <v>30.05653407522894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="H4" t="n">
         <v>22.09252109618844</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.6666032830999</v>
+        <v>761.9241098544928</v>
       </c>
       <c r="C5" t="n">
-        <v>606.7040863426881</v>
+        <v>761.9241098544928</v>
       </c>
       <c r="D5" t="n">
-        <v>606.7040863426881</v>
+        <v>761.9241098544928</v>
       </c>
       <c r="E5" t="n">
-        <v>606.7040863426881</v>
+        <v>761.9241098544928</v>
       </c>
       <c r="F5" t="n">
-        <v>599.7585855934847</v>
+        <v>386.1265029389153</v>
       </c>
       <c r="G5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380408</v>
+        <v>57.64391735380394</v>
       </c>
       <c r="K5" t="n">
-        <v>220.174733845688</v>
+        <v>220.1747338456876</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039978</v>
+        <v>474.0852112039972</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494164</v>
+        <v>773.2160860494153</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635722</v>
+        <v>1062.555213635721</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293129</v>
+        <v>1290.582309293127</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935881</v>
+        <v>1447.523776935879</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="T5" t="n">
-        <v>1264.898900894977</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="U5" t="n">
-        <v>1264.898900894977</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="V5" t="n">
-        <v>975.6666032830999</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="W5" t="n">
-        <v>975.6666032830999</v>
+        <v>1135.389868115573</v>
       </c>
       <c r="X5" t="n">
-        <v>975.6666032830999</v>
+        <v>761.9241098544928</v>
       </c>
       <c r="Y5" t="n">
-        <v>975.6666032830999</v>
+        <v>761.9241098544928</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>666.4184890280303</v>
+        <v>643.1828354198126</v>
       </c>
       <c r="C6" t="n">
-        <v>666.4184890280303</v>
+        <v>468.7298061386856</v>
       </c>
       <c r="D6" t="n">
-        <v>666.4184890280303</v>
+        <v>319.7953964774343</v>
       </c>
       <c r="E6" t="n">
-        <v>507.1810340225749</v>
+        <v>319.7953964774343</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>173.2608385043193</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>34.78543262800153</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>34.78543262800153</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771378</v>
+        <v>52.67537262782839</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760267</v>
+        <v>52.67537262782839</v>
       </c>
       <c r="L6" t="n">
-        <v>195.5446164760267</v>
+        <v>336.9933817739644</v>
       </c>
       <c r="M6" t="n">
-        <v>563.8638510139847</v>
+        <v>705.3126163119218</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903959</v>
+        <v>848.0470181903942</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562715</v>
+        <v>1156.361899562713</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706685</v>
+        <v>1386.808705706683</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707612</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.17437210748</v>
+        <v>1488.158523385687</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.17437210748</v>
+        <v>1287.001448736735</v>
       </c>
       <c r="U6" t="n">
-        <v>1234.17437210748</v>
+        <v>1058.794634390299</v>
       </c>
       <c r="V6" t="n">
-        <v>1234.17437210748</v>
+        <v>1058.794634390299</v>
       </c>
       <c r="W6" t="n">
-        <v>1082.030287998517</v>
+        <v>1058.794634390299</v>
       </c>
       <c r="X6" t="n">
-        <v>874.1787877929842</v>
+        <v>850.9431341847664</v>
       </c>
       <c r="Y6" t="n">
-        <v>666.4184890280303</v>
+        <v>643.1828354198126</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.41102704833756</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="C7" t="n">
-        <v>94.41102704833756</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="D7" t="n">
-        <v>94.41102704833756</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888161</v>
+        <v>32.09990175888145</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611274</v>
+        <v>90.61654790611244</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236689</v>
+        <v>162.7032697236684</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400022</v>
+        <v>238.5105468400016</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057947</v>
+        <v>292.514541505794</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918677</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918677</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918677</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918677</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918677</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="U7" t="n">
-        <v>315.2036061918677</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="V7" t="n">
-        <v>315.2036061918677</v>
+        <v>315.2036061918668</v>
       </c>
       <c r="W7" t="n">
-        <v>315.2036061918677</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="X7" t="n">
-        <v>315.2036061918677</v>
+        <v>29.76317046771373</v>
       </c>
       <c r="Y7" t="n">
-        <v>94.41102704833756</v>
+        <v>29.76317046771373</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533155</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733138</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224084</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4820,7 +4820,7 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2533.284222891535</v>
+        <v>2510.998114830452</v>
       </c>
       <c r="T8" t="n">
-        <v>2314.649555863598</v>
+        <v>2510.998114830452</v>
       </c>
       <c r="U8" t="n">
-        <v>2314.649555863598</v>
+        <v>2510.998114830452</v>
       </c>
       <c r="V8" t="n">
-        <v>1983.586668520027</v>
+        <v>2510.998114830452</v>
       </c>
       <c r="W8" t="n">
-        <v>1983.586668520027</v>
+        <v>2158.229459560338</v>
       </c>
       <c r="X8" t="n">
-        <v>1610.120910258947</v>
+        <v>1784.763701299258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1610.120910258947</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,13 +4884,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598715</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>382.8859346342391</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>382.8859346342391</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>225.1375620667692</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>564.1527310008552</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5021,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5063,25 +5063,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X13" t="n">
-        <v>441.900558318119</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="Y13" t="n">
-        <v>221.1079791745888</v>
+        <v>130.9054447954967</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,16 +5264,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5300,25 +5300,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1331.152681774026</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1107.367266563532</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1107.367266563532</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V16" t="n">
-        <v>1107.367266563532</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W16" t="n">
-        <v>817.9500965265709</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>817.9500965265709</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.1575173830407</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5501,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5537,10 +5537,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1908.095276920732</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2187.63534213943</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2392.657822921639</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>420.3226148324574</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,7 +5765,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5774,10 +5774,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5838,19 +5838,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1396.107276203138</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4054.493082861371</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="C22" t="n">
-        <v>4054.493082861371</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D22" t="n">
-        <v>3904.376443449035</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E22" t="n">
-        <v>3756.463349866642</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368731</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1326.711790770269</v>
       </c>
       <c r="T22" t="n">
-        <v>4525.994054365623</v>
+        <v>1326.711790770269</v>
       </c>
       <c r="U22" t="n">
-        <v>4525.994054365623</v>
+        <v>1326.711790770269</v>
       </c>
       <c r="V22" t="n">
-        <v>4525.994054365623</v>
+        <v>1326.711790770269</v>
       </c>
       <c r="W22" t="n">
-        <v>4236.576884328662</v>
+        <v>1326.711790770269</v>
       </c>
       <c r="X22" t="n">
-        <v>4054.493082861371</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="Y22" t="n">
-        <v>4054.493082861371</v>
+        <v>877.9296607287212</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822461</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6069,19 +6069,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>410.8745301331628</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890051</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4039.399954839299</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C25" t="n">
-        <v>4039.399954839299</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4669.830549711086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>4669.830549711086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>4669.830549711086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W25" t="n">
-        <v>4669.830549711086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X25" t="n">
-        <v>4441.840998813069</v>
+        <v>1098.722239872251</v>
       </c>
       <c r="Y25" t="n">
-        <v>4221.048419669539</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
@@ -6224,22 +6224,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2649.889045452864</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>2896.654173359328</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.411828982802</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>3755.274456646835</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O27" t="n">
-        <v>4034.814521865532</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4555.115143601279</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>850.2141304319072</v>
+        <v>692.5547804049822</v>
       </c>
       <c r="C28" t="n">
-        <v>850.2141304319072</v>
+        <v>692.5547804049822</v>
       </c>
       <c r="D28" t="n">
-        <v>700.0974910195714</v>
+        <v>542.4381409926464</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687012</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.996260473455</v>
+        <v>720.450451650051</v>
       </c>
       <c r="X28" t="n">
-        <v>1071.006709575437</v>
+        <v>720.450451650051</v>
       </c>
       <c r="Y28" t="n">
-        <v>850.2141304319072</v>
+        <v>692.5547804049822</v>
       </c>
     </row>
     <row r="29">
@@ -6458,52 +6458,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.010087623274</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>657.199424285124</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>657.199424285124</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>507.0827848727882</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W31" t="n">
-        <v>1098.423997082767</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X31" t="n">
-        <v>870.43444618475</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y31" t="n">
-        <v>838.8478891153637</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,7 +6713,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6743,7 +6743,7 @@
         <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>474.7746905116409</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>721.5398184181049</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1028.859951698067</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3927.865363461248</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C34" t="n">
-        <v>3927.865363461248</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D34" t="n">
-        <v>3777.748724048913</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048913</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048913</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368733</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H34" t="n">
         <v>3459.155393916677</v>
@@ -6856,13 +6856,13 @@
         <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380587</v>
       </c>
       <c r="K34" t="n">
         <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636328</v>
       </c>
       <c r="M34" t="n">
         <v>4141.00227840351</v>
@@ -6883,25 +6883,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U34" t="n">
-        <v>4347.940519017357</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V34" t="n">
-        <v>4347.940519017357</v>
+        <v>3893.336020727021</v>
       </c>
       <c r="W34" t="n">
-        <v>4058.523348980396</v>
+        <v>3603.91885069006</v>
       </c>
       <c r="X34" t="n">
-        <v>4058.523348980396</v>
+        <v>3603.91885069006</v>
       </c>
       <c r="Y34" t="n">
-        <v>4058.523348980396</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6959,28 +6959,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7020,19 +7020,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471186</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T37" t="n">
-        <v>1210.157301547807</v>
+        <v>1075.210845262959</v>
       </c>
       <c r="U37" t="n">
-        <v>921.0286627613651</v>
+        <v>869.3083006011512</v>
       </c>
       <c r="V37" t="n">
-        <v>666.3441745554783</v>
+        <v>614.6238123952642</v>
       </c>
       <c r="W37" t="n">
-        <v>376.9270045185177</v>
+        <v>325.2066423583034</v>
       </c>
       <c r="X37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7214,10 +7214,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3824.109336418583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3655.173153490676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3655.173153490676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3507.260059908283</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3507.260059908283</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3507.260059908283</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3507.260059908283</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471186</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="U40" t="n">
-        <v>4549.85945949167</v>
+        <v>1009.867621687011</v>
       </c>
       <c r="V40" t="n">
-        <v>4295.174971285784</v>
+        <v>755.1831334811242</v>
       </c>
       <c r="W40" t="n">
-        <v>4005.757801248823</v>
+        <v>465.7659634441634</v>
       </c>
       <c r="X40" t="n">
-        <v>4005.757801248823</v>
+        <v>237.7764125461459</v>
       </c>
       <c r="Y40" t="n">
-        <v>4005.757801248823</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7433,19 +7433,19 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.095276920732</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2187.63534213943</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2392.657822921639</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.3055067228584</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3055067228584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1406.189295007253</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1406.189295007253</v>
+        <v>1336.419047748997</v>
       </c>
       <c r="U43" t="n">
-        <v>1406.189295007253</v>
+        <v>1336.419047748997</v>
       </c>
       <c r="V43" t="n">
-        <v>1151.504806801366</v>
+        <v>1336.419047748997</v>
       </c>
       <c r="W43" t="n">
-        <v>862.0876367644058</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X43" t="n">
-        <v>634.0980858663885</v>
+        <v>819.0123268140194</v>
       </c>
       <c r="Y43" t="n">
-        <v>413.3055067228584</v>
+        <v>598.2197476704893</v>
       </c>
     </row>
     <row r="44">
@@ -7625,40 +7625,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155872</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805451</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1564.731711769082</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1894.594339433115</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.0750425434827</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471184</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473453</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262958</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011512</v>
       </c>
       <c r="V46" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952642</v>
       </c>
       <c r="W46" t="n">
-        <v>1009.867621687013</v>
+        <v>325.2066423583034</v>
       </c>
       <c r="X46" t="n">
-        <v>1009.867621687013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>789.0750425434827</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>149.002100311894</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>399.2039605324505</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>343.3566784943937</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3661252938572</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948384</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357586</v>
       </c>
       <c r="L6" t="n">
-        <v>83.6504370750387</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835735</v>
+        <v>450.1033532835732</v>
       </c>
       <c r="N6" t="n">
-        <v>352.6293543192209</v>
+        <v>209.7518136142324</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270201</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627894</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>9.900512684485932</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,10 +8945,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>253.7371603504735</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.2351313103793</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>189.0022427662467</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>199.7396287231153</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>223.6742649934467</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>38.86002301949884</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>9.900512684485932</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>62.79465928983115</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.86002301949884</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,22 +10668,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>199.6230805871088</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119852</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>20.63789864135472</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>145.2351313103793</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>158.872441903933</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800785</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>23.7819838094092</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>141.799209491358</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>52.26914989715654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>137.4027273976385</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,13 +24187,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>45.44669193641829</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>142.3981303920079</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>137.4027273976383</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>10.4108119367215</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>190.9679388194768</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24895,7 +24895,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>187.3139618534024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.48057451798118</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633778</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642722</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>109.964352403793</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644576</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633778</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.4192454642722</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.964352403793</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>45.64053414218753</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338798</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633778</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I40" t="n">
-        <v>62.7956261325798</v>
+        <v>110.4192454642722</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.964352403793</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709355</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,16 +25834,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>106.1211041884607</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>60.6753104775733</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C46" t="n">
-        <v>53.55513984437992</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182126</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465694</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633778</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675363</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.4192454642722</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.964352403793</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338844</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.584653352095</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648868.6703860386</v>
+        <v>648868.6703860385</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648868.6703860387</v>
+        <v>648868.6703860386</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>648868.6703860387</v>
+        <v>648868.6703860386</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>648868.6703860387</v>
+        <v>648868.6703860386</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>648868.6703860386</v>
+        <v>648868.6703860385</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>648868.6703860387</v>
+        <v>648868.6703860386</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>648868.6703860386</v>
+        <v>648868.6703860385</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>648868.6703860387</v>
+        <v>648868.6703860385</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>648868.6703860386</v>
+        <v>648868.6703860385</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>648868.6703860386</v>
+        <v>648868.6703860385</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176766</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176767</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>800515.7256176764</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176763</v>
-      </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="F2" t="n">
         <v>762506.6664885328</v>
@@ -26329,31 +26329,31 @@
         <v>762506.6664885324</v>
       </c>
       <c r="H2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885329</v>
       </c>
       <c r="I2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885326</v>
       </c>
       <c r="J2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="K2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885329</v>
       </c>
       <c r="L2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.666488533</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703839</v>
+        <v>106137.1517703833</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252105</v>
+        <v>316711.9424252114</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.69487113904</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313421</v>
+        <v>24677.24609313414</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817143</v>
+        <v>76496.15793817144</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318756.6528900198</v>
+        <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>288740.7721312275</v>
+        <v>286886.6599484433</v>
       </c>
       <c r="D4" t="n">
-        <v>194137.7109079702</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>45115.6025831833</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>45115.6025831833</v>
+        <v>43561.4214831656</v>
       </c>
       <c r="G4" t="n">
-        <v>45115.60258318329</v>
+        <v>43561.42148316561</v>
       </c>
       <c r="H4" t="n">
-        <v>45115.6025831833</v>
+        <v>43561.42148316559</v>
       </c>
       <c r="I4" t="n">
-        <v>45115.6025831833</v>
+        <v>43561.4214831656</v>
       </c>
       <c r="J4" t="n">
-        <v>45115.60258318325</v>
+        <v>43561.42148316544</v>
       </c>
       <c r="K4" t="n">
-        <v>45115.60258318326</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="L4" t="n">
-        <v>45115.60258318322</v>
+        <v>43561.42148316544</v>
       </c>
       <c r="M4" t="n">
-        <v>45115.60258318327</v>
+        <v>43561.42148316547</v>
       </c>
       <c r="N4" t="n">
-        <v>45115.60258318328</v>
+        <v>43561.42148316548</v>
       </c>
       <c r="O4" t="n">
-        <v>45115.6025831833</v>
+        <v>43561.42148316556</v>
       </c>
       <c r="P4" t="n">
-        <v>45115.6025831833</v>
+        <v>43561.42148316537</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485715</v>
+        <v>58810.42201485711</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304284.3517640639</v>
+        <v>306114.0362171712</v>
       </c>
       <c r="C6" t="n">
-        <v>346827.3797012077</v>
+        <v>348681.4918839931</v>
       </c>
       <c r="D6" t="n">
-        <v>206806.9942210861</v>
+        <v>208738.1087366258</v>
       </c>
       <c r="E6" t="n">
-        <v>100243.7014797361</v>
+        <v>101797.8825797543</v>
       </c>
       <c r="F6" t="n">
-        <v>625403.7379566329</v>
+        <v>626957.9190566506</v>
       </c>
       <c r="G6" t="n">
-        <v>625403.7379566325</v>
+        <v>626957.9190566503</v>
       </c>
       <c r="H6" t="n">
-        <v>625403.7379566324</v>
+        <v>626957.9190566507</v>
       </c>
       <c r="I6" t="n">
-        <v>625403.7379566324</v>
+        <v>626957.9190566504</v>
       </c>
       <c r="J6" t="n">
-        <v>553149.0430854936</v>
+        <v>554703.2241855115</v>
       </c>
       <c r="K6" t="n">
-        <v>600726.4918634987</v>
+        <v>602280.6729635166</v>
       </c>
       <c r="L6" t="n">
-        <v>548907.5800184612</v>
+        <v>550461.761118479</v>
       </c>
       <c r="M6" t="n">
-        <v>490602.7227227958</v>
+        <v>492156.9038228134</v>
       </c>
       <c r="N6" t="n">
-        <v>625403.7379566326</v>
+        <v>626957.9190566506</v>
       </c>
       <c r="O6" t="n">
-        <v>625403.7379566327</v>
+        <v>626957.9190566508</v>
       </c>
       <c r="P6" t="n">
-        <v>625403.7379566324</v>
+        <v>626957.9190566503</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593891</v>
+        <v>117.5602045593886</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464223</v>
+        <v>372.0396308464217</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026381</v>
+        <v>82.53894384026329</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576971</v>
+        <v>260.1834596576981</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406679</v>
+        <v>95.88311714406623</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.2476419081339</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023558</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440669</v>
+        <v>95.88311714406601</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406679</v>
+        <v>95.88311714406623</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081333</v>
+        <v>302.2476419081339</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832747</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>304.6626701579561</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8510996945768738</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.5079271034444</v>
@@ -27506,25 +27506,25 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>111.8008482867606</v>
       </c>
       <c r="V3" t="n">
-        <v>164.878780618339</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>137.5366751736811</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>154.462316415358</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>153.551289182031</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>34.83641489528975</v>
       </c>
       <c r="G5" t="n">
-        <v>42.79050283128811</v>
+        <v>62.03043453122081</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385216</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>41.41228383437658</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>75.71848382413393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129685</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>101.0723398930463</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>82.43258463175164</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358476</v>
+        <v>78.37121764358483</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322663</v>
+        <v>68.41045236322671</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882337</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>3.936966969679474</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>66.66789593836292</v>
+        <v>44.60464895789045</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>10.68294653693448</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>49.80904827649599</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28852,22 +28852,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.442254137558242e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29749,10 +29749,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29806,13 +29806,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29986,19 +29986,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,10 +30034,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30046,10 +30046,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,22 +30271,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.063298011819522e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31045,7 +31045,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31057,28 +31057,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31118,25 +31118,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
@@ -31148,10 +31148,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31160,7 +31160,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,37 +31197,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31236,10 +31236,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246797</v>
+        <v>0.4726038374246775</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025501</v>
+        <v>4.84005405002548</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231498</v>
+        <v>18.2200594423149</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662294</v>
+        <v>40.11165994662276</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480964</v>
+        <v>60.11698038480937</v>
       </c>
       <c r="L5" t="n">
-        <v>74.5804300743952</v>
+        <v>74.58043007439487</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819634</v>
+        <v>82.98509856819597</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127922</v>
+        <v>84.32788422127884</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288756</v>
+        <v>79.62842981288719</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646577</v>
+        <v>67.96102257646547</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869441</v>
+        <v>51.03589764869418</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262806</v>
+        <v>29.68720080262793</v>
       </c>
       <c r="S5" t="n">
-        <v>10.7694599453149</v>
+        <v>10.76945994531485</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326536</v>
+        <v>2.068823298326527</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397436</v>
+        <v>0.03780830699397419</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560446</v>
+        <v>0.2528653456560435</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941273</v>
+        <v>2.442146890941262</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596272</v>
+        <v>8.706109488596235</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182832</v>
+        <v>23.89022987182821</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078331</v>
+        <v>40.83220803078313</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483548</v>
+        <v>54.90394270483523</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486708</v>
+        <v>64.07031148486679</v>
       </c>
       <c r="N6" t="n">
-        <v>65.7660619827096</v>
+        <v>65.7660619827093</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106777</v>
+        <v>60.1630982710675</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496873</v>
+        <v>48.28619043496851</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128738</v>
+        <v>32.27803956128724</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134635</v>
+        <v>15.69983260134628</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707667</v>
+        <v>4.696862889707647</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359232</v>
+        <v>1.019224792359227</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368715</v>
+        <v>0.01663587800368707</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005378</v>
+        <v>0.2119938115005368</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886601</v>
+        <v>1.884817705886592</v>
       </c>
       <c r="I7" t="n">
-        <v>6.37523207676163</v>
+        <v>6.375232076761601</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308802</v>
+        <v>14.98796247308795</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342611</v>
+        <v>24.629826463426</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072541</v>
+        <v>31.51769812072527</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094339</v>
+        <v>33.23099356094324</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898686</v>
+        <v>32.44083480898672</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736694</v>
+        <v>29.9643616473668</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275594</v>
+        <v>25.63968789275583</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846776</v>
+        <v>17.75159088846768</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651451</v>
+        <v>9.532012651651408</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513916</v>
+        <v>3.6944739695139</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477521</v>
+        <v>0.9057917400477481</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912026</v>
+        <v>0.0115632988091202</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
-        <v>23.32460243089383</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>231.6067186693945</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34866,13 +34866,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201043</v>
+        <v>28.16237059201024</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109938</v>
+        <v>164.1725419109936</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548584</v>
+        <v>256.4752296548581</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337561</v>
+        <v>302.1523988337557</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366724</v>
+        <v>292.2617450366721</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539462</v>
+        <v>230.3303996539458</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926789</v>
+        <v>158.5267349926786</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.0451984341496</v>
+        <v>41.04519843414938</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23.14363854557036</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690029</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>287.1899082284202</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464223</v>
+        <v>372.0396308464217</v>
       </c>
       <c r="N6" t="n">
-        <v>287.0537042185971</v>
+        <v>144.1761635136084</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033529</v>
+        <v>311.4291731033526</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605756</v>
+        <v>232.7745516605754</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.373553211115</v>
+        <v>102.3735532111148</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543261</v>
+        <v>2.360334637543151</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104155</v>
+        <v>59.10772338104141</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278398</v>
+        <v>72.81487052278382</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821546</v>
+        <v>76.57300718821531</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140661</v>
+        <v>54.54948956140647</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764943</v>
+        <v>22.91824715764931</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307158</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>216.9939276160106</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35665,10 +35665,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
@@ -35735,7 +35735,7 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>586.9317337484864</v>
+        <v>641.3196830252161</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35744,7 +35744,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.2481640954534</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.8253897034981</v>
@@ -36206,13 +36206,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>499.426619816713</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642235</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36221,7 +36221,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>274.915516674262</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36452,7 +36452,7 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>534.0986420439131</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>321.223725260607</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556542</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187465</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,13 +36926,13 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>216.9939276160106</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>213.3700978777704</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,16 +37160,16 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>321.223725260607</v>
       </c>
       <c r="P33" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118006</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187458</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>510.0474576375751</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118006</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187458</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37622,13 +37622,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,10 +37637,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>227.7313135728794</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206027</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118006</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187458</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415665</v>
@@ -37877,7 +37877,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>233.2481640954534</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>441.2361441450411</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556532</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799283</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789723</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056034</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206026</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187455</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
